--- a/512480.xlsx
+++ b/512480.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1423"/>
+  <dimension ref="A1:L1433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,7 +752,7 @@
         <v>53549</v>
       </c>
       <c r="F8" t="n">
-        <v>5278674</v>
+        <v>5278673.5</v>
       </c>
       <c r="G8" t="n">
         <v>2019</v>
@@ -832,7 +832,7 @@
         <v>68144</v>
       </c>
       <c r="F10" t="n">
-        <v>6876647</v>
+        <v>6876647.5</v>
       </c>
       <c r="G10" t="n">
         <v>2019</v>
@@ -872,7 +872,7 @@
         <v>56951</v>
       </c>
       <c r="F11" t="n">
-        <v>5648696</v>
+        <v>5648696.5</v>
       </c>
       <c r="G11" t="n">
         <v>2019</v>
@@ -912,7 +912,7 @@
         <v>51130</v>
       </c>
       <c r="F12" t="n">
-        <v>5106423</v>
+        <v>5106423.5</v>
       </c>
       <c r="G12" t="n">
         <v>2019</v>
@@ -992,7 +992,7 @@
         <v>64054</v>
       </c>
       <c r="F14" t="n">
-        <v>6444981</v>
+        <v>6444981.5</v>
       </c>
       <c r="G14" t="n">
         <v>2019</v>
@@ -1192,7 +1192,7 @@
         <v>49379</v>
       </c>
       <c r="F19" t="n">
-        <v>4987462</v>
+        <v>4987462.5</v>
       </c>
       <c r="G19" t="n">
         <v>2019</v>
@@ -1272,7 +1272,7 @@
         <v>38274</v>
       </c>
       <c r="F21" t="n">
-        <v>3717624</v>
+        <v>3717623.5</v>
       </c>
       <c r="G21" t="n">
         <v>2019</v>
@@ -1312,7 +1312,7 @@
         <v>68088</v>
       </c>
       <c r="F22" t="n">
-        <v>6694931</v>
+        <v>6694930.5</v>
       </c>
       <c r="G22" t="n">
         <v>2019</v>
@@ -1392,7 +1392,7 @@
         <v>47788</v>
       </c>
       <c r="F24" t="n">
-        <v>4645186</v>
+        <v>4645186.5</v>
       </c>
       <c r="G24" t="n">
         <v>2019</v>
@@ -1512,7 +1512,7 @@
         <v>205328</v>
       </c>
       <c r="F27" t="n">
-        <v>21150760</v>
+        <v>21150758</v>
       </c>
       <c r="G27" t="n">
         <v>2019</v>
@@ -1592,7 +1592,7 @@
         <v>68814</v>
       </c>
       <c r="F29" t="n">
-        <v>6977648</v>
+        <v>6977648.5</v>
       </c>
       <c r="G29" t="n">
         <v>2019</v>
@@ -1752,7 +1752,7 @@
         <v>309286</v>
       </c>
       <c r="F33" t="n">
-        <v>32633252</v>
+        <v>32633254</v>
       </c>
       <c r="G33" t="n">
         <v>2019</v>
@@ -2152,7 +2152,7 @@
         <v>172288</v>
       </c>
       <c r="F43" t="n">
-        <v>17190152</v>
+        <v>17190154</v>
       </c>
       <c r="G43" t="n">
         <v>2019</v>
@@ -2232,7 +2232,7 @@
         <v>166268</v>
       </c>
       <c r="F45" t="n">
-        <v>16753501</v>
+        <v>16753500</v>
       </c>
       <c r="G45" t="n">
         <v>2019</v>
@@ -2472,7 +2472,7 @@
         <v>180217</v>
       </c>
       <c r="F51" t="n">
-        <v>19814920</v>
+        <v>19814918</v>
       </c>
       <c r="G51" t="n">
         <v>2019</v>
@@ -2512,7 +2512,7 @@
         <v>153349</v>
       </c>
       <c r="F52" t="n">
-        <v>16904460</v>
+        <v>16904458</v>
       </c>
       <c r="G52" t="n">
         <v>2019</v>
@@ -2632,7 +2632,7 @@
         <v>61022</v>
       </c>
       <c r="F55" t="n">
-        <v>6607571</v>
+        <v>6607571.5</v>
       </c>
       <c r="G55" t="n">
         <v>2019</v>
@@ -2712,7 +2712,7 @@
         <v>41125</v>
       </c>
       <c r="F57" t="n">
-        <v>4571483</v>
+        <v>4571482.5</v>
       </c>
       <c r="G57" t="n">
         <v>2019</v>
@@ -3232,7 +3232,7 @@
         <v>340893</v>
       </c>
       <c r="F70" t="n">
-        <v>42620496</v>
+        <v>42620492</v>
       </c>
       <c r="G70" t="n">
         <v>2019</v>
@@ -3312,7 +3312,7 @@
         <v>232853</v>
       </c>
       <c r="F72" t="n">
-        <v>29482576</v>
+        <v>29482578</v>
       </c>
       <c r="G72" t="n">
         <v>2019</v>
@@ -3512,7 +3512,7 @@
         <v>539673</v>
       </c>
       <c r="F77" t="n">
-        <v>67161856</v>
+        <v>67161864</v>
       </c>
       <c r="G77" t="n">
         <v>2019</v>
@@ -3792,7 +3792,7 @@
         <v>340505</v>
       </c>
       <c r="F84" t="n">
-        <v>41743064</v>
+        <v>41743068</v>
       </c>
       <c r="G84" t="n">
         <v>2019</v>
@@ -3912,7 +3912,7 @@
         <v>195073</v>
       </c>
       <c r="F87" t="n">
-        <v>23058952</v>
+        <v>23058954</v>
       </c>
       <c r="G87" t="n">
         <v>2019</v>
@@ -3952,7 +3952,7 @@
         <v>261921</v>
       </c>
       <c r="F88" t="n">
-        <v>30438892</v>
+        <v>30438894</v>
       </c>
       <c r="G88" t="n">
         <v>2019</v>
@@ -4232,7 +4232,7 @@
         <v>169487</v>
       </c>
       <c r="F95" t="n">
-        <v>20272676</v>
+        <v>20272678</v>
       </c>
       <c r="G95" t="n">
         <v>2019</v>
@@ -4312,7 +4312,7 @@
         <v>235310</v>
       </c>
       <c r="F97" t="n">
-        <v>28564672</v>
+        <v>28564670</v>
       </c>
       <c r="G97" t="n">
         <v>2019</v>
@@ -4352,7 +4352,7 @@
         <v>180568</v>
       </c>
       <c r="F98" t="n">
-        <v>21828552</v>
+        <v>21828554</v>
       </c>
       <c r="G98" t="n">
         <v>2019</v>
@@ -5032,7 +5032,7 @@
         <v>208947</v>
       </c>
       <c r="F115" t="n">
-        <v>25019840</v>
+        <v>25019842</v>
       </c>
       <c r="G115" t="n">
         <v>2019</v>
@@ -5312,7 +5312,7 @@
         <v>402807</v>
       </c>
       <c r="F122" t="n">
-        <v>53685368</v>
+        <v>53685364</v>
       </c>
       <c r="G122" t="n">
         <v>2019</v>
@@ -5792,7 +5792,7 @@
         <v>396908</v>
       </c>
       <c r="F134" t="n">
-        <v>54980048</v>
+        <v>54980044</v>
       </c>
       <c r="G134" t="n">
         <v>2019</v>
@@ -6672,7 +6672,7 @@
         <v>3157971</v>
       </c>
       <c r="F156" t="n">
-        <v>581247744</v>
+        <v>581247680</v>
       </c>
       <c r="G156" t="n">
         <v>2020</v>
@@ -15752,7 +15752,7 @@
         <v>2384849</v>
       </c>
       <c r="F383" t="n">
-        <v>497504544</v>
+        <v>497504512</v>
       </c>
       <c r="G383" t="n">
         <v>2020</v>
@@ -16952,7 +16952,7 @@
         <v>2353620</v>
       </c>
       <c r="F413" t="n">
-        <v>484667104</v>
+        <v>484667136</v>
       </c>
       <c r="G413" t="n">
         <v>2021</v>
@@ -22072,7 +22072,7 @@
         <v>3162167</v>
       </c>
       <c r="F541" t="n">
-        <v>440843936</v>
+        <v>440843904</v>
       </c>
       <c r="G541" t="n">
         <v>2021</v>
@@ -57372,6 +57372,406 @@
       <c r="L1423" t="inlineStr">
         <is>
           <t>2025-04-21 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>1.046</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>6894217</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>727052416</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1424" t="inlineStr">
+        <is>
+          <t>2025-04-22 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>1.057</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>1.044</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>8424884</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>884902656</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1425" t="inlineStr">
+        <is>
+          <t>2025-04-23 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>7193048</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>749635520</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1426" t="inlineStr">
+        <is>
+          <t>2025-04-24 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>1.038</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>1.036</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>1.044</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>8050990</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>832581824</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1427" t="inlineStr">
+        <is>
+          <t>2025-04-25 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>1.036</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>6315451</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>654989120</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1428" t="inlineStr">
+        <is>
+          <t>2025-04-28 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>1.049</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>6438450</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>669900032</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1429" t="inlineStr">
+        <is>
+          <t>2025-04-29 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>7835111</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>827837888</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1430" t="inlineStr">
+        <is>
+          <t>2025-04-30 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>7791382</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>834623424</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1431" t="inlineStr">
+        <is>
+          <t>2025-05-06 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>8845336</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>951517056</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1432" t="inlineStr">
+        <is>
+          <t>2025-05-07 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>6271276</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>668883840</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1433" t="inlineStr">
+        <is>
+          <t>2025-05-08 15:00</t>
         </is>
       </c>
     </row>
